--- a/04 上线/丽泽接口确认.xlsx
+++ b/04 上线/丽泽接口确认.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\YDWL\丽泽\04 上线\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20088\Documents\YDWL\丽泽\04 上线\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28696" windowHeight="13052" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="颜色状态" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>调试中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始调试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -221,15 +225,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -338,16 +333,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,9 +1476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
@@ -1492,13 +1489,13 @@
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="7"/>
@@ -1521,19 +1518,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col min="2" max="2" width="5.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5">
+    <row r="1" spans="2:6" ht="16.149999999999999">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1561,13 +1558,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="28">
+    <row r="3" spans="2:6" ht="27.65">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -1612,7 +1609,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -1629,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -1646,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
@@ -1663,7 +1660,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>30</v>
@@ -1680,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>30</v>
@@ -1697,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>30</v>
@@ -1714,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>30</v>
@@ -1731,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>

--- a/04 上线/丽泽接口确认.xlsx
+++ b/04 上线/丽泽接口确认.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20088\Documents\YDWL\丽泽\04 上线\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\YDWL\丽泽\04 上线\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28696" windowHeight="13052" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="颜色状态" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>未开始调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">后台 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,6 +301,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -312,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -344,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1480,7 +1502,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="10" t="s">
@@ -1514,23 +1536,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.149999999999999">
+    <row r="1" spans="2:8" ht="16.5">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1546,8 +1568,14 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -1564,7 +1592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="27.65">
+    <row r="3" spans="2:8" ht="28">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -1581,7 +1609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -1598,7 +1626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -1615,7 +1643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1632,7 +1660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -1649,7 +1677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -1666,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -1683,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -1700,7 +1728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -1717,7 +1745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -1734,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:8">
       <c r="B13" s="3">
         <v>12</v>
       </c>
